--- a/Emelyanchenko_Anastasiya/classification_base.xlsx
+++ b/Emelyanchenko_Anastasiya/classification_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,6 +3349,3192 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://zdravcity.ru/</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>здравсити заказать</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://kak-pishetsya.com/%D0%BF%D0%BE%D0%B2%D1%82%D0%BE%D1%80%D0%B8</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>повтори как</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://plane-sale.com/ru</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>самолет купить</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://ru.wikihow.com/%D0%BD%D0%B0%D1%83%D1%87%D0%B8%D1%82%D1%8C%D1%81%D1%8F-%D0%BF%D0%B5%D1%82%D1%8C</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>как петь</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>http://gomelvanna.by/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=44552140&amp;utm_content=7758974046&amp;utm_term=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82%20%D0%B2%D0%B0%D0%BD%D0%BD%D1%8B&amp;region=155&amp;region_name=%D0%93%D0%BE%D0%BC%D0%B5%D0%BB%D1%8C.desktop.%D0%93%D0%BE%D0%BC%D0%B5%D0%BB%D1%8C.17584368068.none&amp;block=premium.1&amp;etext=2202.pK9perN0WQRTh2p134M8CilQvdXcGg5bA-4e6GNcc2J0bndqaXRxamp5d2F5emJh.c8262de5ea479086aea1fbeef646850cf326a4fe&amp;yclid=17097599719906213887</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ремонт ванной</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://stock.lada.by/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=87383916&amp;utm_content=14096599233&amp;utm_term=%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%9B%D0%B0%D0%B4%D0%B0&amp;etext=2202.HzE_OGm7YI83n04j3aYiXUihiTcw7X6Bggru96bzb3tjeWFrb2pxcXl4YWN4aXZj.73dac60bf89b0021bbf1017acda4cc0de1a1716d&amp;yclid=18215812993473052671</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>купить ладу</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://ozon.by/category/</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>озон заказать</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://salvina.by/rectangular/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_content=8474926566&amp;utm_term=%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5%20%D1%88%D1%82%D0%B0%D0%BC%D0%BF%D0%BE%D0%B2&amp;utm_campaign=shtampy_Search_Bel&amp;etext=2202.E-u8eagvjKugfoOMUo8dLOvN6SiD03q5OizIW_jNwAxkH-0a3_-5v2_OgMiQojIzaHFpZm53amNub21kb3JneQ.d2ff7c44436d55c31156514cddeb7b6f1566b782&amp;yclid=4548351913445818367</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>изготовление штампа</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://lestnica5.by/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=31657996&amp;utm_content=6694276848&amp;utm_term=%D0%97%D0%B0%D0%BA%D0%B0%D0%B7%D0%B0%D1%82%D1%8C%20%D0%BB%D0%B5%D1%81%D1%82%D0%BD%D0%B8%D1%86%D1%83&amp;etext=2202.sz_Um67YMdJx5hsG9jTBbI6-C8kFLXJ9jRDMlElcLIYKaTMO9FLWmjXTFu76iBWAYnlsamdvYmFza2lmd3dhbA.0595c280a1c6cece7d3273f667fffd6696809908&amp;yclid=8751213558486269951</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>заказать лестницу</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/remont-fenov-dlya-volos/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>ремонт фена</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%A1%D0%B8%D0%BC%D1%84%D0%B5%D1%80%D0%BE%D0%BF%D0%BE%D0%BB%D1%8C</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>симферополь где</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://my.mail.ru/music/search/%D0%9C%D0%B0%D1%80%D1%81%D0%B5%D0%BB%D1%8C%20%20-%20%D0%A2%D1%83%D0%B4%D0%B0%20%D0%B3%D0%B4%D0%B5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>туда где</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://beltapak.by/produktsiya/klishe/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=poisk&amp;utm_content=klishe-tisneniya&amp;utm_term=%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5%20%D0%BA%D0%BB%D0%B8%D1%88%D0%B5&amp;etext=2202.YKIqp_fSJPVZuEFr1zhZpAJHiMuzYsRVWbgJy_MjB2rxsL-qj668WOVHVR4R7gwuamV5cHl5aHBxa3BheW1rdg.af48c1ef83889ffe530fec666ae28c9bf0d0ff85&amp;yclid=5455291336021508095</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>изготовление клише</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>http://gde-kuda.ru/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>где куда</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category/dizajneryi/vebdizajner/redizajn-sajta--236</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>заказать редизайн</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category/raznoe/trezvyij-voditel--859</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>заказать водителя</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://foodbay.com/wiki/selkhoz-industrija/2017/08/07/iz-chego-i-kak-delayutsya-suhofrukty/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>изготовление сухофруктов</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://fashionprint.ru/poshiv-galstukov/</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>изготовление галстуков</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/technologies/instructions/1787067-kak-ocistit-kes-v-hrome-bystro-i-cto-eto-dast/</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>как очистить</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://apteka.ru/preparation/kriofarma/</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>криофарма купить</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://shkolenet.ru/QA/17480025/</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>поставь где</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://pikabu.ru/story/kak_lomat_saytyi_krivorukikh_programmistov_6327495</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>как сломать</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://rulez.by/noutbuki_i_kompyutery/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=Tovarnaya_Noutbuki_yd_shopping_RB&amp;utm_term=%D0%BD%D0%BE%D1%83%D1%82%D0%B1%D1%83%D0%BA%20%D0%B7%D0%B0%D0%BA%D0%B0%D0%B7%D0%B0%D1%82%D1%8C&amp;utm_content=15450641822&amp;etext=2202.zHwmnIRjKLX7aeIhHbqd5gdDNzDnsNEz4lVjHg9oOn8hk2SpTln9M_0VdaRyuk_lbnp6cnp2ZGhmZXRxbXFqYw.6177ebfc15790d294f5682df8e32abacaacdc5b6&amp;yclid=8607532797378691071</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>ноутбук заказать</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://msk.kupiprodai.ru/search/?q=%D0%BF%D1%80%D0%B8%D0%B2%D0%BE%D1%80%D0%BE%D1%82+%D1%81+%D0%BE%D0%BF%D0%BB%D0%B0%D1%82%D0%BE%D0%B9</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>заказать приворот</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://ati.su/landings/cargo-add-by/?utm_source=ndirect&amp;utm_medium=cpc&amp;utm_campaign=51004147&amp;utm_term=%D0%97%D0%B0%D0%BA%D0%B0%D0%B7%D0%B0%D1%82%D1%8C%20%D1%84%D1%83%D1%80%D1%83&amp;utm_content=11853784020|37062312293|adtext=check-driver-car-doc-quickly|title2=exchange-ati|geo-target=by|method-target=key&amp;etext=2202.b3Q1_BGNosb5eC7d3XRqRIpM7W254T6vnXFZUaQiyUVxb2hwd2RwbW5rbndoaGVu.7eaeb9abdd632faa80703ade19c2440110d38c4e&amp;yclid=9162663682196373503</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>заказать фуру</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>08.12.2023</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category?text=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D1%80%D0%B0%D1%86%D0%B8%D0%B9</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>ремонт радиостанций</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://shop.by/monitory/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=General_Yandex_Search&amp;utm_content=monitor&amp;yclid=11435151259514961919</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>купить монитор</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://club.dns-shop.ru/blog/t-326-internet/44341-kak-besplatno-smotret-tv-so-smartfona/</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>как смотреть</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://ozon.by/category/treker-apple-air-tag/</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>airtag купить</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://hobbygames.by/karti-i-fokusi?utm_source=yandex_direct&amp;utm_medium=sem&amp;utm_campaign=awereness-sem-dynamic_campaign-by&amp;utm_term=x-x_x-dsa-by&amp;utm_content=051023&amp;etext=2202.rSfVMkDM6D_MPRqfeiyfcU_VBQjs-RiQw29A1l4QRg647plSTUn8Myyge-qz0I4wcXdjc2JlZW56eGpkemxjcQ.8751ce7cbc7505fa0be6b1297624c910b182a8fd&amp;yclid=14047839865442664447</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>заказать карты</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.maam.ru/detskijsad/didakticheskaja-igra-gde-chto-rastet.html</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>где растет</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://yandex.ru/health/turbo/articles?id=7182</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>где поджелудочная</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/remont-trimmerov-dlya-travy/</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ремонт триммеров</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://1pp1.ru/shop/solid-crust/izgotovlenie-udostoverenij-na-zakaz/</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>заказать удостоверение</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/gdefotkistudio/</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>где фотки</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/izgotovlenie-stoleshnic/</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>изготовление столешниц</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://marmeladich.ru/</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>мармеладыч заказать</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://design-remonts.ru/</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>стильный ремонт</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/172691899/detail.aspx</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>где муха</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://pikabu.ru/story/gde_mukha_6246280</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>где муха</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://my.mail.ru/music/songs/%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F-%D0%BD%D0%B0%D1%80%D0%BE%D0%B4%D0%BD%D0%B0%D1%8F-%D1%85%D0%BE%D1%80%D0%BE%D0%B2%D0%BE%D0%B4%D0%BD%D0%B0%D1%8F-%D0%B3%D0%B4%D0%B5-%D0%BC%D0%B0%D0%BB%D1%8C%D1%87%D0%B8%D0%BA%D0%B8-%D0%B3%D0%B4%D0%B5-%D0%B4%D0%B5%D0%B2%D0%BE%D1%87%D0%BA%D0%B8-0830360022c015960eceae7734087a64</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>где мальчики</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://winestyle.ru/cider/</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>где купить сидр</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/catalogsearch/result/?q=%D1%82%D0%BE%D0%BB%D1%81%D1%82%D0%BE%D0%B2%D0%BA%D0%B8</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>где купить толстовку</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/remont-liftov/</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ремонт лифта</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.kuvalda.ru/catalog/1849/</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>где купить электроинструмент</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/leisure/diy/1713822-kak-sdelat-slajm-v-domasnih-usloviah/</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>изготовление слайма</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://zakazkrovli.ru/catalog/ulichnye-lestnitsy-iz-dpk/v-nalichii/</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>изготовление крыльца</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>09.12.2023</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://art4you.ru/catalog/izgotovlenie-nagrad/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>изготовление наград</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://quadromoto.by/katalog/quadro/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=poisk_quadrocycle_91054815&amp;utm_content=kupit_quadro_14640288598&amp;utm_term=%D0%9A%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%BA%D0%B2%D0%B0%D0%B4%D1%80%D0%BE%D1%86%D0%B8%D0%BA%D0%BB.desktop.%D0%93%D0%BE%D0%BC%D0%B5%D0%BB%D1%8C.46069800617.none&amp;block=premium.1&amp;yclid=3157850401190969343</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>купить квадроцикл</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://ram.by/computers.html?yclid=5276009883605925887</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>компьютер купить</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://electroshoke.ru/</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>электрошокер купить</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://tehclub.site/katalog/konversionnaya-tehnika/tanki-repliki-nastoyashhih</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>купить танк</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://xn--80aaprra7c.xn--90ais/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=66937605&amp;utm_content=11332371044&amp;utm_term=%D0%9F%D1%80%D0%B5%D0%B7%D0%B5%D1%80%D0%B2%D0%B0%D1%82%D0%B8%D0%B2%D1%8B%20%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C&amp;yclid=3867571668227457023</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>презервативы купить</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://plus.yandex.ru/action/offerwall/rb_perf?utm_source=direct_network&amp;utm_medium=paid_performance&amp;utm_campaign=97397198|MSCAMP-3_[PL-P]_{WS:N}_BY-149_goal-PL_Master-offerwall&amp;utm_term=%D0%BF%D0%BE%D0%B4%D0%BF%D0%B8%D1%81%D0%BA%D0%B0&amp;utm_content=cid|97397198|gid|5298658384|aid|15116774757&amp;yclid=11119709200733175807</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>купить подписку</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://youdo.com/remont-bitovoy-tehniki/kuhonnaya/mikrovolnovki</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>ремонт микроволновок</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://unishop.by/categories/pylesosy/</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>где пылесос</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://dzen.ru/video/watch/6193e17fd5b30603cbe2ff38</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>как соединить</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://aussiedlerbote.de/2023/06/samye-deshevye-napravleniya-dlya-puteshestvij-letom-2023-goda/</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>где отдохнуть</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://gramota.ru/poisk?query=%D0%BA%D0%B0%D0%BA%20%D1%85%D0%BE%D1%87%D1%83&amp;mode=spravka</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>как хочу</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://ozon.by/category/deshevyy-skotch/</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>где купить скотч</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://music.yandex.ru/album/3068941/track/25903440</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>как жаль</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://mychords.net/en/bravo/5974-bravo-kak-zhal-chto-ty-segodnya-ne-so-mnoj.html</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>как жаль</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.sima-land.ru/upakovka/</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>где купить упаковку</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-ubedit-kogo-ugodno/</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>как уговорить</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.xn----9sbeklkn0a0b0ff.xn--p1ai/%D0%B7%D0%B0%D0%BA%D0%B0%D0%B7%D0%B0%D1%82%D1%8C-%D0%BE%D1%82%D0%B7%D1%8B%D0%B2%D1%8B</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>заказать отзывы</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://kalk.pro/articles/finish/kak-shtukaturit-steny-svoimi-rukami/</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>как штукатурить</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://kdl.ru/patient/blog/uvelichenie-limfaticheskih-uzlov</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>где лимфоузлы</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%9B%D0%B8%D0%BC%D1%84%D0%B0%D1%82%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D0%B9_%D1%83%D0%B7%D0%B5%D0%BB</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>где лимфоузлы</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/remont-otmostki/viezd/</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>ремонт отмостки</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://nav.tn.ru/knowledge-base/konstruktsii/nulevoy-tsikl/otmostka/remont-otmostki-kogda-neobkhodim-i-kak-sdelat-samostoyatelno/</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ремонт отмостки</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://meduza.io/cards/kak-pravilno-stirat</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>как постирать</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/remont-proektorov/</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>ремонт проекторов</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://lenta.ru/news/2023/12/09/syn-baydena-zayavil-o-popytkah-ego-ubiystva/</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>где янукович</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://journal.sovcombank.ru/umnii-potrebitel/chto-takoe-donati-obzor-servisov-dlya-donatov</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>как донатить</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.unisender.com/ru/blog/idei/servisy-dlya-priema-donatov/</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>как донатить</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>http://www.bolshoyvopros.ru/questions/1138889-gde-nahoditsja-kolizej.html</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>где колизей</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://xn--80acq4ak6b1a.xn--p1ai/czeny/</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>заказать забор</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D0%BC</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>рим где</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://remont-kolodca.ru/</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>ремонт колодца</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://remont-teplovizorov.ru/</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>ремонт тепловизоров</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://moscow.megafon.ru/services/useful/services_detailing/services_detailing.html</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>заказать детализацию</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://transtrade.pro/</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ремонт гидротрансформаторов</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.mosniva.ru/index.php</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ремонт нивы</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://apteka.ru/product/xlorella-1000-mg-100-sht-tabletki-massoj-11-g-635f85669f769d8e64ddee29/</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>где купить хлореллу</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://makroglas.by/?yclid=13167426173510615039</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>ремонт скола</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://tvmag.by/search/?query=%D0%B1%D0%BB%D0%B5%D0%BD%D0%B4%D0%B5%D1%80&amp;roistat=direct1_search_13140623682_%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%B1%D0%BB%D0%B5%D0%BD%D0%B4%D0%B5%D1%80&amp;roistat_referrer=none&amp;roistat_pos=premium_1&amp;yclid=14598078388664270847</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>где купить блендер</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/8480343/detail.aspx</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>где купить куркуму</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/izgotovlenie-dublikatov-klyuchej/price/</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>изготовление ключа</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://pool-engineering.ru/services/stroitelstvo-basseynov/</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>изготовление бассейнов</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://zoon.ru/msk/business/type/polki_na_zakaz/</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>изготовление полок</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://xn--80aaaoduziifnefvf.xn--p1ai/izgotovlenie-radiatorov-ohlazhdenija/</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>изготовление радиатора</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://dzen.ru/a/Xz3l8sdS-lQCIUKS</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>техника изготовления</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://supersrub.github.io/</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>изготовление срубов</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://youdo.com/remont-ehlektroniki/video-audio/televizory</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ремонт телевизоров</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://www.gazprombank.ru/personal/page/metal/</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>золото купить</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://youla.ru/moskva?q=%D0%97%D0%B0%D0%BC%D0%B8%D0%BE%D0%BA%D1%83%D0%BB%D1%8C%D0%BA%D0%B0%D1%81</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>замиокулькас купить</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://www.sportmaster.ru/catalog/trenazhery_i_fitnes_/silovye_trenirovki/set-dumbbells/?utm_referrer=https%3A%2F%2Fwww.yandex.ru%2F</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>купить гантели</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://rblx.bar/</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>купить роблоксы</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://www.podshipnik56.ru/?yclid=1467719891437486079</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>подшипники купить</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://www.kinopoisk.ru/film/4577/?utm_referrer=www.yandex.ru</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>как майк</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://agent-key.ru/service.html</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>изготовление автоключей</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://blog.eldorado.ru/publications/kak-skryt-druzey-v-vk-i-drugie-poleznye-funktsii-platformy-39149</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>как скрыть</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://giprint.ru/katalogi/</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>изготовление каталогов</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://smoke.kg/blog/vape-i-vse-o-nikh/kak-pravilno-polzovatsya-veypom/</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>как парить</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://ru.wikihow.com/%D0%BA%D1%83%D1%80%D0%B8%D1%82%D1%8C-%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%BE%D0%BD%D0%BD%D1%8B%D0%B5-%D1%81%D0%B8%D0%B3%D0%B0%D1%80%D0%B5%D1%82%D1%8B</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>как парить</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://food.inmyroom.ru/posts/25248-kak-pravilno-tushit-produkty-vse-nyuansy</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>как тушить</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://yandex.by/maps/geo/selo_teriberka/53128472/?ll=35.136201%2C69.174996&amp;z=12</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>териберка где</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=P9vU6AEfMf0</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>где клипы</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://www.chitai-gorod.ru/comics</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>где купить комиксы</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://ref-gomel.deal.by/g5000047-teh-obsluzhivanie-remont?cat_id=282010&amp;yclid=16329909556444397567</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>ремонт авторефрижераторов</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/dom/dachniy-sezon/basseyny/karkasnye-basseyny</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>заказать бассейн</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://market-delivery.yandex.ru/r/tokyo</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>токио заказать</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://www.livemaster.ru/masterclasses/kukly-i-igrushki/kukly-video</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>изготовление кукол</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/zhenshchinam/odezhda/verhnyaya-odezhda/palto-i-polupalto/palto</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>заказать пальто</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://martyushovmv.github.io/Videostudio/</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>изготовление видеоконтента</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://xn----7sbh7adsh6bd3d3c.xn--80adxhks/uslugi/izgotovlenie-vyhlopnyh-sistem/</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>изготовление выхлопа</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://copybrothers.ru/kopirovalnyiy-tsentr/pechat-plakatov-poshtuchno/</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>изготовление плаката</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>10.12.2023</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug?q=%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5+%D0%B2%D0%B0%D0%BB%D0%BE%D0%B2</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>изготовление вала</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Emelyanchenko_Anastasiya/classification_base.xlsx
+++ b/Emelyanchenko_Anastasiya/classification_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6535,6 +6535,3354 @@
         </is>
       </c>
     </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.toyota.ru/</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>купить тойота</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/videokarty/set-rtx-4070/</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>4070 купить</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.winelab.ru/catalog/krepkiy-alkogol-viski</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>виски купить</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://otvet.mail.ru/question/46197561</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>как е</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://e-baby.by/p-nastolnaya_igra_hobby_world_manchkin_tsvetnaya_versiya_2_e_rus_izd_/?etext=2202.kJNZXbzPcnMNZJU5Se4wevbxPugn8KXnKJQgpE4rH2B8z8QZMFQ-vqy-ngBio0owd3RodWRrcmloaHdpbHp5dw.3b1936ef6ac5f2f61e9c0a2a8253723946e1d217&amp;yclid=10163961126622330879</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>манчкин купить</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://kardanservis.by/?utm_source=yandex_direct&amp;utm_medium=cpc&amp;utm_campaign=remont_kardana_kviz&amp;utm_content=osn&amp;utm_term=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82%20%D0%BA%D0%B0%D1%80%D0%B4%D0%B0%D0%BD%D0%BE%D0%B2&amp;yclid=14621781814234578943</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>ремонт карданов</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://pechatimsk.ru/srochno-za-chas</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>печати изготовление</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://support.google.com/youtube/answer/4489286?hl=ru-RU&amp;co=GENIE.Platform%3DDesktop</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>как подписка</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://eda.yandex.ru/search?query=%D0%BC%D0%B0%D0%BD%D1%82%D1%8B&amp;type=</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>манты заказать</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://www.petshop.ru/adverts/dogs/</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>где купить собаку</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://www.dogeat.ru/blog/kak-myaukayut-koshki/promo/nedelya-brenda-chicopee-skidka-do-25-na-izbrannyj-assortiment-june-2023/</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>как мяукает</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://ucompa.ru/zvuki-effekti/zvuki-mjaukanja-koshki</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>как мяукает</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://www.ogorod.ru/ru/ogorod/bed/13874/kak-pravilno-polivat-rastenia-v-ogorode-sovety-dlya-uvelichenia-urojaya.htm</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>как поливать</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://remonteldv.ru/remont-transformatorov</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>ремонт трансформаторов</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://www.tutu.ru/geo/rossiya/kurort/adler/</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>адлер где</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%9D%D0%BE%D1%80%D0%B8%D0%BB%D1%8C%D1%81%D0%BA</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>норильск где</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category?text=%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D1%8E+%D0%BD%D0%BE%D0%B6+%D0%BD%D0%B0+%D0%B7%D0%B0%D0%BA%D0%B0%D0%B7</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>изготовление ножей</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://www.monetnik.ru/obuchenie/noji/delaem-nozh-na-domu/</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>изготовление ножей</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://aremont.ru/</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>альфа ремонт</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://zoon.ru/msk/repair/servisnyj_tsentr_alfa_remont_na_metro_prazhskaya/reviews/</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>альфа ремонт</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://oraclemsk.ruexpert.net/</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>ремонт oracle</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://www.canva.com/ru_ru/pechat/podarochnye-sertifikaty/</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>изготовление сертификатов</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.fabrika-shatrov.ru/belarus/?utm_source=yandex&amp;utm_medium=search&amp;utm_campaign=belarus&amp;utm_content=1ad&amp;utm_term=%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5%20%D1%88%D0%B0%D1%82%D1%80%D0%BE%D0%B2&amp;roistat=direct16_search_15438765981_%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5%20%D1%88%D0%B0%D1%82%D1%80%D0%BE%D0%B2&amp;roistat_referrer=none&amp;roistat_pos=premium_1&amp;yclid=10206244072367587327</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>изготовление шатров</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://shuhrat.ru/prizy/</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>изготовление призов</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://rbxsell.com/buy</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>робуксы купить</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://ozon.by/</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>озон купить</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://www.kinopoisk.ru/film/280172/?utm_referrer=www.yandex.ru</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>как приручить</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/category/semena-na-rassadu-171327/</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>купить семена</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://gemotest.ru/info/spravochnik/zabolevaniya/appenditsit/</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>где аппендицит</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/category/shtangentsirkuli-2412/</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>штангенциркуль купить</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>вилдберис купить</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/elektronika/krasota-i-zdorove/tags/irrigatory</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>ирригатор купить</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/category/protivogazy-4583/</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>противогаз купить</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://onona.ru/sexopedia/kak-najti-klitor-rukovodstvo-dlya-muzhchin</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>клитор где</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%9A%D0%BB%D0%B8%D1%82%D0%BE%D1%80</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>клитор где</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://denali.by/product-category/rings/?utm_source=yd_search&amp;utm_medium=cpc&amp;utm_campaign=22967125&amp;utm_content=2160995119-3242890229-premium-1&amp;utm_term=7913239151-%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%BA%D0%BE%D0%BB%D1%8C%D1%86%D0%BE-none-goal_0&amp;yclid=16535618713402212351</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>купить кольцо</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://mobilroof.by/modulnaya_cherepitsa?yclid=4274945833590063103</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>купить металлочерепицу</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://bearbrick.ru/</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>bearbrick купить</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://ozon.by/category/transpondery-8672/</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>транспондер где купить</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://animego.org/anime/genre/fantasy</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>аниме где</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/aksessuary/bizhuteriya/znachki</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>заказать значки</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/leisure/entertainment/1717753-kak-pravilno-fotografirovat-na-telefon/</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>как фотографировать</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/1-moscow-and-moscow-oblast/category/remont-avto/avtostekla/remont-skolov-stekla--4807</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>ремонт сколов</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://translated.turbopages.org/proxy_u/en-ru.ru.2b00e081-657e24ea-17979c38-74722d776562/https/www.wikihow.com/Fart-on-Demand</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>как пукать</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://www.eapteka.ru/goods/drugs/neurology/tranquilizer/fenazepam/</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>феназепам где купить</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://www.pochta.ru/tracking</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>где п</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://nastroy.by/materialy-dlya-krovli/metallocherepica/?yclid=15754737104575004671</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>заказать металлочерепицу</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://arthata.by/info/pechat-photo-na-holste?Holst-Obshie&amp;yclid=5499575435735859199</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>заказать портрет</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://otvet.mail.ru/question/36310679</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>как собачка</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://experience.tripster.ru/articles/vologda/</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>вологда где</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%92%D0%BE%D0%BB%D0%BE%D0%B3%D0%B4%D0%B0</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>вологда где</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://translated.turbopages.org/proxy_u/en-ru.ru.731f1906-657e26ec-f5824ad7-74722d776562/https/www.wikihow.com/Growl</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>как рычит</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/publication/kak-pravilno-shpaklevat-steny-1326/</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>как шпаклевать</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://znaet.petrovich.ru/remont/otdelka-sten/vyravnivanie-sten/instruktsiya/kak-shpatlevat-steny-instruktsiya-dlya-novichkov/</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>как шпаклевать</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/48646401/detail.aspx</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>скипидар где купить</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://translated.turbopages.org/proxy_u/en-ru.ru.7740480b-657e2068-ccba9c0a-74722d776562/https/www.wikihow.com/Dilute-Solutions</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>как разбавить</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://track24.ru/</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>где посылочка</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/podarki/detyam/igrushki</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>где игрушки</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.mosigra.ru/nastolnye-igry/</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>заказать игру</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://www.tutu.ru/geo/strana/dominican_republic/</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>доминикана где</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%9A%D1%80%D0%B0%D1%81%D0%BD%D0%BE%D0%B3%D0%BE%D1%80%D1%81%D0%BA</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>красногорск где</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://market-delivery.yandex.ru/retail/d/karty-igralnye</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>где купить карты</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.stihiya-shop.by/catalog/rollerskating/roller_skates/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=%D0%9F%D0%BE%D0%B8%D1%81%D0%BA_-_stihiya-shop.by_-_%D0%A0%D0%BE%D0%BB%D0%B8%D0%BA%D0%B8_-_%D0%A0%D0%91&amp;utm_content=%D1%80%D0%BE%D0%BB%D0%B8%D0%BA%D0%B8_%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C_%D0%BC%D0%B0%D0%B3%D0%B0%D0%B7%D0%B8%D0%BD|gid|4871123736|ad_id|11949484211|campaign_id|51926905|device_type|desktop|phrase_id|37585421219&amp;utm_term=%D0%B3%D0%B4%D0%B5%20%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D1%80%D0%BE%D0%BB%D0%B8%D0%BA%D0%B8&amp;yclid=154023783561691135</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>где купить ролики</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://service-mopedov.ru/</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>ремонт мопедов</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://xn--c1aeaa2aeeicgtwg0b4g.xn--90ais/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=38840823&amp;utm_content=6624660296&amp;utm_term=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82%20%D0%BF%D0%BE%D0%B3%D1%80%D1%83%D0%B7%D1%87%D0%B8%D0%BA%D0%BE%D0%B2&amp;block=premium&amp;position=2&amp;yclid=6094933582775320575</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>погрузчик ремонт</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.vprok.ru/product/vozrojdenie-nap-medov-elaha-chpl-4-5-0-45l--443324</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>елаха где купить</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://yakitoriya.ru/menu-dostavki/sety</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>закажи роллы</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://smotrim.ru/brand/60289?amp;amp</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>где мимимишки</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://kudikina.ru/ekb/bus/56/online</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>где 56</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://origamitea.ru/category/japanese-packaged-matcha-tea/</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>где купить матчу</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://xn--80aaoscfm0a5cwf.xn--90ais/?yclid=12176196253264642047</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>канцелярия заказать</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://lagomera.by/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=search&amp;utm_content=stoneware&amp;utm_term=%D0%BA%D0%B5%D1%80%D0%B0%D0%BC%D0%BE%D0%B3%D1%80%D0%B0%D0%BD%D0%B8%D1%82%20%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C&amp;yclid=10166635861911535615</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>керамогранит заказать</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/158051020/detail.aspx</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>этилацетат где купить</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://tamkover.ru/</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>изготовление ковров</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://translated.turbopages.org/proxy_u/en-ru.ru.4714a81b-657e281d-514f931d-74722d776562/https/en.wikipedia.org/wiki/Rug_making</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>изготовление ковров</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://ozon.by/category/krupa-polba/</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>где купить полбу</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://shop.by/molokootsosy/</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>заказать молокоотсос</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://printpozitiv.ru/ruchki</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>изготовление ручек</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://msk.rost-holding.ru/manufacture/proizvodstvo-rti/seals/</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>изготовление уплотнений</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://ptkbik.ru/upakovka-iz-kartona/showbox?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=amg.search.spb.pos&amp;utm_term=%D0%BF%D1%80%D0%BE%D0%B8%D0%B7%D0%B2%D0%BE%D0%B4%D1%81%D1%82%D0%B2%D0%BE%20%D1%88%D0%BE%D1%83%D0%B1%D0%BE%D0%BA%D1%81%D0%BE%D0%B2&amp;utm_content=ch_yandex_direct|cid66246673|gid4711928244|ad11231106695|ph34335257054|crt{creativeid}|pst{positiontype}|ps1|srctsearch|srcnone|devtdesktop|ret{retargetingid}|geo{regionid}|cf{coefgoal_context_id}|int{interestid}|tgt{adtargetid}|addno&amp;cm_id=66246673_4711928244_11231106695_34335257054_34335257054_none_search_type1_no_desktop_premium_26008&amp;yclid=4122861817461735423</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>изготовление шоубоксов</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.dom-bitovki.ru/</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>бытовка изготовление</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>17.12.2023</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://polygrav.ru/bejdzhi/izgotovlenie-bejdzhej/</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>изготовление бейджев</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://www.cactusbazar.ru/collection/succulents</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>суккуленты купить</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://bashauto.ru/</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>башавтотранс купить</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://lzt.market/?pget=1</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>lolzteam купить</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://dzen.ru/a/Xzkq179wQi2xtFDB</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>как появилась</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/publication/kak-nauchitsya-payat-payalnikom-pravilnaya-tehnika-dlya-nachinayuschih-2846/</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>как паять</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://club.dns-shop.ru/blog/t-375-payalnyie-instrumentyi/90493-kak-pravilno-payat-rukovodstvo-dlya-nachinauschih/</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>как паять</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>http://plombarus.ru/z-p-u.html?yclid=4141793434519470079</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>где купить пломбы</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://www.kp.ru/daily/27496/4755762/</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>как продлить</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-prodlit-seks/</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>как продлить</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category?text=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%BA%D1%83%D0%BB%D0%B5%D1%80%D0%BE%D0%B2+%D0%B4%D0%BB%D1%8F+%D0%B2%D0%BE%D0%B4%D1%8B</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>ремонт кулера</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://zoon.ru/msk/entertainment/type/kompyuternyj_klub/</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>где играть</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://ant-models.ru/</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>заказать эскорт</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%A9%D0%B8%D1%82%D0%BE%D0%B2%D0%B8%D0%B4%D0%BD%D0%B0%D1%8F_%D0%B6%D0%B5%D0%BB%D0%B5%D0%B7%D0%B0</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>щитовидка где</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.mvideo.ru/portativnoe-audio-25/portativnaya-akustika-202/f/category=umnye-kolonki-7487/brand=yandeks?utm_source=yandex&amp;utm_medium=organic&amp;utm_campaign=yandex&amp;utm_referrer=yandex</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>где купить алису</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://golosmarket.ru/?language=ru</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>заказать озвучку</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://mozaikka.ru/?utm_referrer=https%3A%2F%2Fwww.yandex.ru%2F</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>мозаика заказать</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://uteka.ru/catalog/dieticheskoe-pitanie/saharozameniteli/</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>сахарозаменитель где купить</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://more-metizov.ru/ankery?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=ankery_opti_cpl&amp;utm_term=---autotargeting&amp;yclid=9015905705385787391</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>изготовление анкеров</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://jprobe.ru/produktsiya/?yclid=17423077624541872127</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>где купить эндоскоп</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://shilda.by/shtendery-v-minske/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=102082377&amp;utm_content=15464102150&amp;utm_term=%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5%20%D1%88%D1%82%D0%B5%D0%BD%D0%B4%D0%B5%D1%80%D0%BE%D0%B2&amp;yclid=16219343725071958015</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>изготовление штендеров</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/dom/dosug-i-tvorchestvo/tvorchestvo-i-rukodelie/biseropletenie/biser</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>заказать бисер</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/catalogsearch/result/?q=%D0%BA%D1%83%D1%80%D1%82%D0%BA%D0%B8</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>где купить куртку</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://astronaut.by/shnek.html?yclid=17851605916493021183</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>изготовление шнеков</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://eda.yandex.ru/search?query=%D0%9B%D0%B0%D0%B2%D0%B0%D1%88&amp;type=shop</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>лаваш где купить</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://lodochnik.by/g10139805-eholoty?csbss0=6501258?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign={%D0%9F%D0%BE%D0%B8%D1%81%D0%BA_%D0%AD%D1%85%D0%BE%D0%BB%D0%BE%D1%82%D1%8B_%D0%A0%D0%91}&amp;utm_content={%D0%AD%D1%85%D0%BE%D0%BB%D0%BE%D1%82_%D0%9E%D0%B1%D1%89}&amp;utm_term=%D1%8D%D1%85%D0%BE%D0%BB%D0%BE%D1%82&amp;yclid=396719444705411071</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>где купить эхолот</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://bellavka.by/catalog/platya-i-sarafany/discount-from-1?sort=rating&amp;utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=043%20-%20%D0%9F%D0%9E%D0%98%D0%A1%D0%9A%20-%20%D0%91%D0%B5%D0%BB%D0%BE%D1%80%D1%83%D1%81%D1%81%D0%BA%D0%B0%D1%8F%20%D0%BE%D0%B4%D0%B5%D0%B6%D0%B4%D0%B0%20-%20BY,KZ&amp;yclid=2157027920367845375</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>где купить сарафан</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://protruck.by/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=Search_Izgotovlenie&amp;utm_content=15274048780&amp;utm_term=%D0%B8%D0%B7%D0%B3%D0%BE%D1%82%D0%BE%D0%B2%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5%20%D1%84%D1%83%D1%80%D0%B3%D0%BE%D0%BD%D0%BE%D0%B2&amp;yclid=17713575001712754687</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>изготовление фургонов</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://art-yuvelir.ru/service/izgotovlenie-serezhek/</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>изготовление сережек</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://sunlight.net/wiki/kak-sdelat-serezhki-svoimi-rukami-idei-i-primery.html</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>изготовление сережек</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.safes.ru/seyfy-na-zakaz/</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>изготовление сейфов</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.bmw.ru/ru/index.html</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>бмв купить</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www.topnomer.ru/</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>купить номера</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://market.yandex.by/catalog--produkty/54434/list?slug=produkty&amp;nid=54434&amp;text=%D0%B0%D0%BC%D0%B0%D1%80%D0%B0%D0%BD%D1%82&amp;wprid=1703159481049910-1757074346278906361-balancer-l7leveler-kubr-yp-sas-55-BAL-230&amp;utm_source_service=web&amp;clid=703&amp;src_pof=703&amp;icookie=Fyqg2EpWd5T70dJVwjxtEypFV%2BAhWuQ6pY8Ie0yXOuvLWTa36Ir6wcQSyxBX5kdVuNd1C%2B4ohX81HCqj60lmGVp4iN0%3D&amp;baobab_event_id=lqf56lvf1s&amp;lr=0&amp;rtr=155&amp;_redirectCount=1</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>амарант купить</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://art-trotuar.by/arenda-manipulyatora-gomel?utm_source=yandex_direct&amp;utm_medium=cpc&amp;utm_campaign=manipuliator-obshchee&amp;utm_content=ch_yandex_direct|cid_97176826|gid_5296640283|ad_15099637435|ph_47425681871|crt_0|pst_premium|ps_1|srct_search|src_none|devt_desktop|ret_47425681871|geo_155|cf_0|int_|tgt_47425681871|add_no|mrlid_3405|dop_&amp;utm_term=%D0%B7%D0%B0%D0%BA%D0%B0%D0%B7%D0%B0%D1%82%D1%8C%20%D0%BC%D0%B0%D0%BD%D0%B8%D0%BF%D1%83%D0%BB%D1%8F%D1%82%D0%BE%D1%80&amp;yclid=17065097842583666687</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>заказать манипулятор</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://www.moscowtimes.eu/2023/10/30/chvk-vagner-pereshla-pod-kontrol-rosgvardii-a111652</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>где вагнер</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://smoking-shop.info/elektronnye-sigarety/vape/</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>где купить вейп</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://help.2gis.ru/question/kak-opredelit-svoyo-mestopolozhenie</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>где находятся</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://sfr.gov.ru/grazhdanam/workers/personalized_accounting/~7221</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>заказать снилс</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/43807561/detail.aspx</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>где купить мухоморы</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://kokoc.com/blog/konstruktor-sajtov/</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>где делать</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://hunkemoller.by/pliaj/po-tipu/vse-kupalniki?utm_source=yandex&amp;utm_medium=cpc&amp;utm_term=%D0%B3%D0%B4%D0%B5%20%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%BA%D1%83%D0%BF%D0%B0%D0%BB%D1%8C%D0%BD%D0%B8%D0%BA&amp;utm_campaign=poisk-kupalniki-87104588&amp;utm_content=v2%7C%7C14054794648%7C%7C44560002389%7C%7C%D0%B3%D0%B4%D0%B5%20%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%BA%D1%83%D0%BF%D0%B0%D0%BB%D1%8C%D0%BD%D0%B8%D0%BA%7C%7C1%7C%7Cpremium%7C%7Cnone%7C%7Csearch%7C%7Cno%7C%7C87104588%7C%7C5186046965&amp;yclid=15985744049855791103</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>купальники где купить</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>21.12.2023</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://rosnerzh.ru/izgotovlenie-polotencesushitelej-na-zakaz</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>изготовление полотенцесушителей</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Emelyanchenko_Anastasiya/classification_base.xlsx
+++ b/Emelyanchenko_Anastasiya/classification_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9883,6 +9883,2706 @@
         </is>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://atlantm.by/cars?utm_source=yandex&amp;utm_medium=cpc&amp;utm_content=14702757619&amp;utm_term=%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%B0%D0%B2%D1%82%D0%BE&amp;utm_id=brand_atlantm_ohvat_yandex_poisk_rb&amp;utm_id=brand_atlantm_ohvat_yandex_poisk_rb&amp;utm_id=91483894&amp;utm_campaign=brand_atlantm_ohvat_yandex_poisk_rb&amp;yclid=3296609218737995775</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>авто купить</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/sport/sportivnoe-pitanie/protein</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>купить протеин</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://kakizbavitsyaot.ru/</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>как избавиться</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://www.hobot.by/catalog/vodonagrevateli/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=Vodonagrevateli_poisk&amp;utm_term=%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%B1%D0%BE%D0%B9%D0%BB%D0%B5%D1%80&amp;network={network}&amp;placement={placement}&amp;position={adposition}&amp;adid={creative}&amp;match={matchtype}&amp;yclid=1859576675176284159</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>бойлер купить</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://media.foxford.ru/articles/kak-rabotaet-internet</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>интернет где</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/elektronika/audiotehnika/radio</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>радиоприемник купить</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://apteka.ru/product/steviya-ekstra-150-sht-shipuchie-tabletki-5e327776ca7bdc0001934218/</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>стевия купить</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://www.eapteka.ru/goods/id102715/</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>тотема купить</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://otvet.mail.ru/question/232067014</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>привет как</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://global.wildberries.ru/catalog?search=%D1%8E%D0%BB%D0%B0+%D0%B4%D0%BB%D1%8F+%D0%BC%D0%B0%D0%BB%D1%8B%D1%88%D0%B5%D0%B9</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>юла купить</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-otregulirovat-plastikovye-okna/</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>как отрегулировать</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://textovod.com/punctuation</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>где запятая</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://meduniver.com/Medical/Anatom/267.html</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>сердце где</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://yandex.ru/q/question/kak_pravilno_napisat_kak_skazhete_ili_kak_a3883098/</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>как скажите</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/household/cleaning/1843231-kak-otmyt-plitu-bystro-i-effektivno/</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>как отмыть</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/www.gde.ru/</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>где ру</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://journal.tinkoff.ru/guide/obrezka-dereviev/</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>как обрезать</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://www.g-sk.ru/%D0%BF%D1%80%D0%B0%D0%B9%D1%81</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>ремонт гаража</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://obuvi-remont.by/?yclid=7600809223579238399</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>ремонте обувь</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://otvet.mail.ru/question/197668903</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>где х</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/remont-trimmerov-dlya-travy/</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>ремонт триммера</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>http://xn--d1aijejbddj.xn--90ais/dipl.html?utm_source=Yandex.Direct&amp;utm_medium=cpc&amp;utm_campaign=Diplom_Poisk_PB_krome_MO_and_VO&amp;utm_content=gid|2669053495|aid|5128446975&amp;utm_term=%D0%B7%D0%B0%D0%BA%D0%B0%D0%B7%D0%B0%D1%82%D1%8C%20%D0%B4%D0%B8%D0%BF%D0%BB%D0%BE%D0%BC&amp;pm_source=none&amp;pm_block=premium&amp;pm_position=2&amp;yclid=11062692607743754239</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>заказать диплом</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://joytour.by/bus/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=search|74806739&amp;utm_content=phrase_id|39093394402|gid|4925762211|aid|12210032615&amp;utm_term=%D0%B7%D0%B0%D0%BA%D0%B0%D0%B7%D0%B0%D1%82%D1%8C%20%D0%B0%D0%B2%D1%82%D0%BE%D0%B1%D1%83%D1%81&amp;added=no&amp;block=premium&amp;pos=1&amp;device=desktop&amp;yclid=7005449937653071871</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>автобус заказать</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://turbolider.by/?yclid=14861306443635097599</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>ремонт турбины</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug?q=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%BE%D0%B8%D0%BD%D1%81%D1%82%D1%80%D1%83%D0%BC%D0%B5%D0%BD%D1%82%D0%B0</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>ремонт электроинструментов</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category/tvorchestvo-rukodelie-i-hobbi/yuvelirnyie-izdeliya/remont-yuvelirnyih-izdelij--2844</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>ремонт золото</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/1-moscow-and-moscow-oblast/category/arenda/spetstehnika/ekskavatoryi--4492</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>заказать экскаватор</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://realty.rbc.ru/news/651aa0899a7947815aeb9bf5</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>как платить</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.gosuslugi.ru/help/faq/rft/2771</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>как заплатить</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/uslugi?q=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B4%D0%BE%D0%BC%D0%BA%D1%80%D0%B0%D1%82%D0%BE%D0%B2</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>ремонт домкрата</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://sbermarket.ru/categories/sladosti_new/morozhenoe</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>мороженое заказать</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://zoon.ru/msk/public_services/type/obschestvennye_tualety/okrug/tsao/</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>где туалеты</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://yandex.by/project/direct/promocode/direct-300?utm_medium=YD_Search_Bel_Reklama&amp;utm_source=YD_Search_Bel&amp;utm_campaign=Promocode_YD_Search_Bel_Reklama_All&amp;utm_content=none&amp;utm_term=%D1%80%D0%B5%D0%BA%D0%BB%D0%B0%D0%BC%D0%B0&amp;region=26008&amp;region_name=%D0%A0%D0%B5%D1%87%D0%B8%D1%86%D0%B0&amp;yclid=9871244304432496639</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>изготовление рекламы</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://www.kdmid.ru/docs/montenegro/information-about-the-country/</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>черногория где</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://ilumaterea.ru/</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>айкос заказать</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category?text=%D0%92%D1%8B%D0%B5%D0%B7%D0%B4%D0%BD%D0%BE%D0%B9+%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D1%81%D0%B0%D0%BC%D0%BE%D0%BA%D0%B0%D1%82%D0%BE%D0%B2</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>ремонт самоката</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://bestpositive.com/stati/leto-kruglyy-god-30-vsegda-solnechnyh-mest/</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>где лето</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%BC%D0%B1%D0%BE%D0%B2</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>тамбов где</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/c/6327/default-detskieigrushki/</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>игрушки заказать</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://kartaslov.ru/%D1%81%D0%B8%D0%BD%D0%BE%D0%BD%D0%B8%D0%BC%D1%8B-%D0%BA-%D1%81%D0%BB%D0%BE%D0%B2%D1%83/%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>ремонт синонимы</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%9B%D1%8E%D0%BA%D1%81%D0%B5%D0%BC%D0%B1%D1%83%D1%80%D0%B3</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>люксембург где</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://okko.tv/movie/long-zai-na-li</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>где дракон</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://medium.com/@Rich_Jew/%D0%BF%D1%80%D0%BE%D0%B8%D0%B7%D0%B2%D0%BE%D0%B4%D1%81%D1%82%D0%B2%D0%BE-%D0%BC%D1%8B%D0%BB%D0%B0-%D1%80%D1%83%D1%87%D0%BD%D0%BE%D0%B9-%D1%80%D0%B0%D0%B1%D0%BE%D1%82%D1%8B-464a7ae8b282</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>изготовление мыла</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://drive-models.ru/</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>заказать девочек</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://www.gosuslugi.ru/help/faq/foreign_passport/23</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>изготовление загранпаспорта</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://xn--90ahbkofhhpir3b.xn--p1ai/</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>ремонт liebherr</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://www.hobot.by/catalog/vodonagrevateli/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=Vodonagrevateli_poisk&amp;utm_term=%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D0%B1%D0%BE%D0%B9%D0%BB%D0%B5%D1%80&amp;network={network}&amp;placement={placement}&amp;position={adposition}&amp;adid={creative}&amp;match={matchtype}&amp;yclid=1859576675176284159</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>грильница заказать</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>http://www.carpe.ru/produkcija/ezhednevniki?yclid=3363766010758299647</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>изготовление ежедневников</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://market-delivery.yandex.ru/moscow?shippingType=delivery</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>деливери заказать</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/food/recipes/1766236-domasnee-vino-iz-vinograda-posagovyj-recept-s-percatkoj/</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>изготовление вина</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://gsr-group.ru/remont-besplatno.html</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>ремонт бесплатно</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/statyi/lichnyy-opyt-kak-staty-uchastnikom-teleremonta-stsetivw-vs~57737142</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>ремонт бесплатно</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/brands/poppers/tovary-dlya-vzroslyh</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>где купить поперсы</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://av-groupe.by/?yclid=9844325434649477119</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>изготовление дымоходов</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://www.kant.ru/catalog/product/3658885/?utm_medium=cpc&amp;utm_source=yandex&amp;utm_campaign=y_search_vendor_yes_rf|103701707&amp;utm_term=---autotargeting&amp;utm_content=k50id|0100000049099005444_49099005444|cid|103701707|gid|5363848745|aid|15580561571|adp|no|pos|premium2|src|search_none|dvc|desktop|reg26008|main&amp;k50id=0100000049099005444_49099005444&amp;yclid=5175406601251323903</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>где купить сноуборд</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://guitaroff.ru/production/</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>изготовление гитары</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://journal.tinkoff.ru/guide/sidr/</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>изготовление сидора</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://good-master.ru/proizvodstvo-zhaluzi-v-moskve/</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>изготовление жалюзей</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://vitrazi.ru/</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>изготовление витража</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://burdastyle.ru/stati/kak-sdelat-igolnitsu-idei-dlya-vdokhnoveniya-/</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>изготовление игольницы</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://stroymarcet.by/g943497-setki-shtukaturnye-kladochnye?yclid=16434664082785959935</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>изготовление пеноблока</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://progidravlika.by/?yclid=8518566051216359423</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>изготовление гидроцилиндра</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://www.tutu.ru/poezda/mini/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=mrkt_train_1000&amp;utm_term=---autotargeting&amp;yclid=6755869187329228799</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>ржд купить</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://lutik.by/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=98142089&amp;utm_content=15176604723&amp;utm_term=%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C%20%D1%86%D0%B2%D0%B5%D1%82%D1%8B&amp;yclid=13619710625180549119</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>цветы купить</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://meduza.io/paragraph/2021/06/15/dumaete-u-vas-nadezhnyy-parol-vot-kratkiy-spisok-sposobov-ego-vzloma-hakerami</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>как взломать</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://topscooter.by/scooter?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=100062083&amp;utm_content=15316430033&amp;utm_term=%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%BE%D1%81%D0%BA%D1%83%D1%82%D0%B5%D1%80%20%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C&amp;yclid=8748687146423418879</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>электроскутер купить</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://ozon.by/club/article/kak-zakazat-na-ozon-47257/</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>как заказать</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/uslugi?q=%D1%82%D0%BE%D1%80%D1%82%D1%8B+%D0%BD%D0%B0+%D0%B7%D0%B0%D0%BA%D0%B0%D0%B7</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>заказать торт</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast/uslugi?q=%D1%80%D0%B5%D0%BC%D0%BE%D0%BD%D1%82+%D0%B3%D0%B5%D0%BD%D0%B5%D1%80%D0%B0%D1%82%D0%BE%D1%80%D0%BE%D0%B2</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>ремонт генератора</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/family/relationship/1638787-kak-vernut-lyubimogo-muzhchinu/</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>как вернуть</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/%D0%9F%D1%81%D0%BA%D0%BE%D0%B2</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>где псков</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://www.traderoll.by/shop/?yclid=7608481156052811775</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>заказать скотч</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://www.khl.ru/news/2023/12/26/524947.html</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>как сыграли</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://pharmland.by/pacientam/tri-glavnyh-soveta-pri-prostude.html?yclid=4070134632565702655</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>как простудиться</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://alkobutikl.online/%D0%B2%D0%B8%D0%BD%D0%BE/</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>вино заказать</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://otvet.mail.ru/question/192053791</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>где детонатор</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://asc-rem.ru/remont-igrovih-pristavok/xbox</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>ремонт xbox</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://www.kino-teatr.ru/kino/movie/sov/13251/annot/</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>как сказка</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://www.1tv.ru/news/2023-10-20/463574-nachalnik_genshtaba_valeriy_gerasimov_dolozhil_vladimiru_putinu_o_hode_spetsoperatsii</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>где герасимов</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://winestyle.ru/vodka/</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>где купить водку</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/world/1885494-majk-tajson-spusta-23-goda-rasskazal-pocemu-otkusil-uho-holifildu/</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>как складывать</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://remontcompa.ru/windows/windows-11/2651-kak-pereimenovat-fajly-ili-papki-v-windows-11.html</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>как переименовать</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://meduza.io/feature/2023/07/21/arestovan-igor-strelkov-on-zhe-girkin-ego-zapodozrili-v-prizyvah-k-ekstremizmu</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>где стрелков</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://www.importsvet.by/category/ljustry-minsk/?yclid=2144037500295315455</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>где купить люстру</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://mdsk-dom.ru/o-nas/</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>техно ремонт</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://www.ixbt.com/live/games/esli-remonta-v-zhizni-malo-obzor-house-flipper.html</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>симулятор ремонта</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://zvero.ru/moskva</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>где купить животных</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/pitanie/sladosti</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>заказать сладости</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://youla.ru/moskva/zhivotnye/koshki</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>где купить котенка</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://belpenoplast.by/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=44670159&amp;utm_content=7776711261&amp;utm_term=%D0%BF%D0%B5%D0%BD%D0%BE%D0%BF%D0%BB%D0%B0%D1%81%D1%82%20%D0%BA%D1%83%D0%BF%D0%B8%D1%82%D1%8C&amp;yclid=13481766315405082623</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>заказать пенопласт</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/brands/reborn-312664/kukly</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>заказать реборна</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/category/termometr-rtutnyy/</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>где купить термометр</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://apteka.ru/category/diet/kletchtka/</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>где купить клетчатку</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/brands/ruchki</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>где купить ручки</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://www.the-village.ru/business/process/337831-matreshki-semenov?from=infinite_scroll</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>изготовление матрешки</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://vozdv.ru/Zakaz.html</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>изготовление крестов</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://www.plast2000.ru/made_to_order/</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>изготовление заглушек</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://www.forumhouse.ru/journal/articles/2898-materialy-dlya-stroitelstva-cokolya</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>изготовление цоколя</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://m-strana.ru/articles/kak-sdelat-taburetku/</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>изготовление табурета</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>27.12.2023</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://www.ozon.ru/ozonid/domain_redirect?domain=ozon.by&amp;redirect_uri=%2Fcategory%2Fnardy-nastolnye%2F</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>нарды заказать</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>7301054@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
